--- a/src/test/resources/homeLoan.xlsx
+++ b/src/test/resources/homeLoan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="146">
   <si>
     <t>2024</t>
   </si>

--- a/src/test/resources/homeLoan.xlsx
+++ b/src/test/resources/homeLoan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="146">
   <si>
     <t>2024</t>
   </si>

--- a/src/test/resources/homeLoan.xlsx
+++ b/src/test/resources/homeLoan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="146">
   <si>
     <t>2024</t>
   </si>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>3</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -809,22 +809,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
@@ -832,22 +832,22 @@
         <v>14</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -855,22 +855,22 @@
         <v>19</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>23</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -878,22 +878,22 @@
         <v>24</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
@@ -901,22 +901,22 @@
         <v>29</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>33</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
@@ -924,22 +924,22 @@
         <v>34</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -947,22 +947,22 @@
         <v>39</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>43</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -970,22 +970,22 @@
         <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>48</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
@@ -993,22 +993,22 @@
         <v>49</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>53</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
@@ -1016,22 +1016,22 @@
         <v>54</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>58</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
@@ -1039,22 +1039,22 @@
         <v>59</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>63</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -1062,22 +1062,22 @@
         <v>64</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>68</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -1085,22 +1085,22 @@
         <v>69</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>73</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         <v>74</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>78</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
@@ -1131,16 +1131,16 @@
         <v>79</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>81</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s" s="0">
         <v>83</v>

--- a/src/test/resources/homeLoan.xlsx
+++ b/src/test/resources/homeLoan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="146">
   <si>
     <t>2024</t>
   </si>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>3</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>89</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -809,22 +809,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -832,22 +832,22 @@
         <v>14</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -855,22 +855,22 @@
         <v>19</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -878,22 +878,22 @@
         <v>24</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>103</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -901,22 +901,22 @@
         <v>29</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>107</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -924,22 +924,22 @@
         <v>34</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -947,22 +947,22 @@
         <v>39</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>115</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -970,22 +970,22 @@
         <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>119</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -993,22 +993,22 @@
         <v>49</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>123</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -1016,22 +1016,22 @@
         <v>54</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>127</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -1039,22 +1039,22 @@
         <v>59</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>131</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
@@ -1062,22 +1062,22 @@
         <v>64</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>135</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -1085,22 +1085,22 @@
         <v>69</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>139</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         <v>74</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>143</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -1131,16 +1131,16 @@
         <v>79</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>81</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s" s="0">
         <v>83</v>

--- a/src/test/resources/homeLoan.xlsx
+++ b/src/test/resources/homeLoan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="146">
   <si>
     <t>2024</t>
   </si>
